--- a/data/pca/factorExposure/factorExposure_2018-06-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02122315880378046</v>
+        <v>-0.02251737939219342</v>
       </c>
       <c r="C2">
-        <v>-0.02045934789024818</v>
+        <v>0.01734431855877783</v>
       </c>
       <c r="D2">
-        <v>0.01435140085299506</v>
+        <v>0.02421976285520878</v>
       </c>
       <c r="E2">
-        <v>0.02339683662310691</v>
+        <v>-0.01347066759122469</v>
       </c>
       <c r="F2">
-        <v>-0.1128180677694042</v>
+        <v>0.01133363318826236</v>
       </c>
       <c r="G2">
-        <v>0.05977250982567459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05084752873606062</v>
+      </c>
+      <c r="H2">
+        <v>0.04631301969360424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09786837951062846</v>
+        <v>-0.08904606358203074</v>
       </c>
       <c r="C3">
-        <v>0.01204997523575875</v>
+        <v>-0.01608305093959332</v>
       </c>
       <c r="D3">
-        <v>0.09336178090137735</v>
+        <v>0.04530775652940958</v>
       </c>
       <c r="E3">
-        <v>0.07085569040148906</v>
+        <v>-0.00177820700146417</v>
       </c>
       <c r="F3">
-        <v>-0.3854574835195683</v>
+        <v>0.007619396366349685</v>
       </c>
       <c r="G3">
-        <v>0.1500423078352935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1905344189955163</v>
+      </c>
+      <c r="H3">
+        <v>0.1653445590008664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03986725847406758</v>
+        <v>-0.04945592696204613</v>
       </c>
       <c r="C4">
-        <v>-0.007676837301525849</v>
+        <v>0.002056995636325009</v>
       </c>
       <c r="D4">
-        <v>-0.01782512344337778</v>
+        <v>0.05262721209276454</v>
       </c>
       <c r="E4">
-        <v>-0.04293499659166689</v>
+        <v>0.02174667167230958</v>
       </c>
       <c r="F4">
-        <v>-0.08060464631334834</v>
+        <v>0.05612149848198506</v>
       </c>
       <c r="G4">
-        <v>0.04535429947448089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0304571965873174</v>
+      </c>
+      <c r="H4">
+        <v>0.05150872803046481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02207611276857811</v>
+        <v>-0.03047583126343042</v>
       </c>
       <c r="C6">
-        <v>-0.01096455459144713</v>
+        <v>0.0001900775476769913</v>
       </c>
       <c r="D6">
-        <v>0.00626739061991508</v>
+        <v>0.05589183820433657</v>
       </c>
       <c r="E6">
-        <v>-0.01885580365880419</v>
+        <v>0.005552665043844865</v>
       </c>
       <c r="F6">
-        <v>-0.02644291761293663</v>
+        <v>0.03263589686497691</v>
       </c>
       <c r="G6">
-        <v>-0.004766639664409651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.00890091449072934</v>
+      </c>
+      <c r="H6">
+        <v>0.06059540989098685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02195526144320576</v>
+        <v>-0.02418637375451236</v>
       </c>
       <c r="C7">
-        <v>-0.005449848328497808</v>
+        <v>0.001028275994436531</v>
       </c>
       <c r="D7">
-        <v>0.01454232954319208</v>
+        <v>0.02996139719166307</v>
       </c>
       <c r="E7">
-        <v>-0.02608125570155312</v>
+        <v>0.04348262908592794</v>
       </c>
       <c r="F7">
-        <v>-0.049884252524316</v>
+        <v>0.009038862162713393</v>
       </c>
       <c r="G7">
-        <v>0.06263146043208768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02168964750326478</v>
+      </c>
+      <c r="H7">
+        <v>0.03672446319254272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01890427669891653</v>
+        <v>-0.007964944706820376</v>
       </c>
       <c r="C8">
-        <v>-0.01122698667424102</v>
+        <v>-0.002689497347681596</v>
       </c>
       <c r="D8">
-        <v>0.004776356020266321</v>
+        <v>0.01219504727000969</v>
       </c>
       <c r="E8">
-        <v>-0.03401700534158598</v>
+        <v>0.007952613304652226</v>
       </c>
       <c r="F8">
-        <v>-0.1009055677324265</v>
+        <v>0.02390906741963084</v>
       </c>
       <c r="G8">
-        <v>0.04738006722485569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04038044217890526</v>
+      </c>
+      <c r="H8">
+        <v>0.03882210705700055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03326886526862741</v>
+        <v>-0.03911831467909712</v>
       </c>
       <c r="C9">
-        <v>-0.01238328022746774</v>
+        <v>-0.001170660188615772</v>
       </c>
       <c r="D9">
-        <v>-0.006075874273782474</v>
+        <v>0.03940065093403566</v>
       </c>
       <c r="E9">
-        <v>-0.03317021271434921</v>
+        <v>0.01090803144041592</v>
       </c>
       <c r="F9">
-        <v>-0.09011694363012235</v>
+        <v>0.03197587669257208</v>
       </c>
       <c r="G9">
-        <v>0.05269033894733009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04142787950176506</v>
+      </c>
+      <c r="H9">
+        <v>0.05072562480178801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03321656779401986</v>
+        <v>-0.09417697632728532</v>
       </c>
       <c r="C10">
-        <v>0.07729949190024431</v>
+        <v>-0.01098122242108162</v>
       </c>
       <c r="D10">
-        <v>-0.06587357136628058</v>
+        <v>-0.1709220508880415</v>
       </c>
       <c r="E10">
-        <v>0.121901836825074</v>
+        <v>-0.001974872399635433</v>
       </c>
       <c r="F10">
-        <v>-0.04448243907698653</v>
+        <v>-0.03448784527655332</v>
       </c>
       <c r="G10">
-        <v>-0.01440681139788795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03565017759964977</v>
+      </c>
+      <c r="H10">
+        <v>0.009449967363941845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03332061674243026</v>
+        <v>-0.02566803142045935</v>
       </c>
       <c r="C11">
-        <v>-0.02373942544696206</v>
+        <v>-0.0116514071348836</v>
       </c>
       <c r="D11">
-        <v>0.01437914415577122</v>
+        <v>0.04492848832119672</v>
       </c>
       <c r="E11">
-        <v>-0.02571337008054327</v>
+        <v>-0.0006034772688995192</v>
       </c>
       <c r="F11">
-        <v>-0.04762149846157373</v>
+        <v>0.01555074427093588</v>
       </c>
       <c r="G11">
-        <v>0.02336777102999524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02565662157717108</v>
+      </c>
+      <c r="H11">
+        <v>0.0465477863007247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04131426535144488</v>
+        <v>-0.03035772837697501</v>
       </c>
       <c r="C12">
-        <v>-0.02466835389385608</v>
+        <v>-0.00842328549874731</v>
       </c>
       <c r="D12">
-        <v>0.005689410220676079</v>
+        <v>0.04348820073130497</v>
       </c>
       <c r="E12">
-        <v>-0.03617413180760685</v>
+        <v>0.008541681110593623</v>
       </c>
       <c r="F12">
-        <v>-0.0328446617226457</v>
+        <v>0.01824497959432967</v>
       </c>
       <c r="G12">
-        <v>0.005790551665536981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.006664527140404942</v>
+      </c>
+      <c r="H12">
+        <v>0.0206038121675771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01523314700161521</v>
+        <v>-0.03055539263265812</v>
       </c>
       <c r="C13">
-        <v>-0.02052079730177487</v>
+        <v>0.01231085445085309</v>
       </c>
       <c r="D13">
-        <v>-0.001029450352318089</v>
+        <v>0.01458842841027549</v>
       </c>
       <c r="E13">
-        <v>0.01031324660865912</v>
+        <v>-0.008809655778079378</v>
       </c>
       <c r="F13">
-        <v>-0.07847846283955029</v>
+        <v>0.02851832884111603</v>
       </c>
       <c r="G13">
-        <v>0.03847431595447062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06032017315842009</v>
+      </c>
+      <c r="H13">
+        <v>0.07209595920221927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01583104467977872</v>
+        <v>-0.01914450468652657</v>
       </c>
       <c r="C14">
-        <v>-0.0005070987459387833</v>
+        <v>0.0002526824042964755</v>
       </c>
       <c r="D14">
-        <v>-0.00708204303723527</v>
+        <v>0.008116991935899858</v>
       </c>
       <c r="E14">
-        <v>-0.03353616635044308</v>
+        <v>0.01475328511800126</v>
       </c>
       <c r="F14">
-        <v>-0.05761829153783796</v>
+        <v>0.01989301603581873</v>
       </c>
       <c r="G14">
-        <v>0.05869927804903366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03909094320610772</v>
+      </c>
+      <c r="H14">
+        <v>0.009267639610482162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02640144292842139</v>
+        <v>-0.02587989215713968</v>
       </c>
       <c r="C16">
-        <v>-0.02670489676184246</v>
+        <v>-0.0112812943664926</v>
       </c>
       <c r="D16">
-        <v>0.01147967093007675</v>
+        <v>0.03773782200419206</v>
       </c>
       <c r="E16">
-        <v>-0.02049794976049542</v>
+        <v>0.002854711942569948</v>
       </c>
       <c r="F16">
-        <v>-0.05417857958428585</v>
+        <v>0.01983659065066442</v>
       </c>
       <c r="G16">
-        <v>0.02460411048882095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02085463923775347</v>
+      </c>
+      <c r="H16">
+        <v>0.03502970971645744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04604227888965604</v>
+        <v>-0.03813040434773335</v>
       </c>
       <c r="C19">
-        <v>-0.0191596557497818</v>
+        <v>-0.001520677419883242</v>
       </c>
       <c r="D19">
-        <v>0.01381591332792402</v>
+        <v>0.02934073099297698</v>
       </c>
       <c r="E19">
-        <v>-0.02673714273650911</v>
+        <v>0.00626547958435514</v>
       </c>
       <c r="F19">
-        <v>-0.1129194201590544</v>
+        <v>0.03202161217443415</v>
       </c>
       <c r="G19">
-        <v>0.03079919603964911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06002779909074327</v>
+      </c>
+      <c r="H19">
+        <v>0.06973757099966235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001474699054184798</v>
+        <v>-0.01414881721144672</v>
       </c>
       <c r="C20">
-        <v>-0.00779272972468794</v>
+        <v>0.004223400564742719</v>
       </c>
       <c r="D20">
-        <v>-0.003437089638839673</v>
+        <v>0.01850824050835258</v>
       </c>
       <c r="E20">
-        <v>-0.02464117408265357</v>
+        <v>0.006021521432777887</v>
       </c>
       <c r="F20">
-        <v>-0.07700332136828786</v>
+        <v>0.02404645581933995</v>
       </c>
       <c r="G20">
-        <v>0.06989323628384084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05007424067104949</v>
+      </c>
+      <c r="H20">
+        <v>0.02425539346015271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.006684509314808005</v>
+        <v>-0.0177972369958103</v>
       </c>
       <c r="C21">
-        <v>0.01463748533425916</v>
+        <v>0.006760496801083404</v>
       </c>
       <c r="D21">
-        <v>0.02191905368310334</v>
+        <v>0.01705776563486085</v>
       </c>
       <c r="E21">
-        <v>-0.02758069265314062</v>
+        <v>0.02028841099946942</v>
       </c>
       <c r="F21">
-        <v>-0.05090490972421265</v>
+        <v>0.01464805029321212</v>
       </c>
       <c r="G21">
-        <v>0.02132499835516802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0489506752151143</v>
+      </c>
+      <c r="H21">
+        <v>0.0457692104621323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02940792898558271</v>
+        <v>-0.02263549450644034</v>
       </c>
       <c r="C24">
-        <v>-0.02409895520583151</v>
+        <v>-0.00563364648168522</v>
       </c>
       <c r="D24">
-        <v>0.0001568270684327302</v>
+        <v>0.03909469245198453</v>
       </c>
       <c r="E24">
-        <v>-0.00823941267466134</v>
+        <v>0.001023321290656162</v>
       </c>
       <c r="F24">
-        <v>-0.04602938424805798</v>
+        <v>0.01466225882889983</v>
       </c>
       <c r="G24">
-        <v>0.02219272863464686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01658820279088733</v>
+      </c>
+      <c r="H24">
+        <v>0.04428286148311413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0297956403990579</v>
+        <v>-0.03367403476749962</v>
       </c>
       <c r="C25">
-        <v>-0.01572615901042258</v>
+        <v>-0.003595960174129177</v>
       </c>
       <c r="D25">
-        <v>0.01487002918980893</v>
+        <v>0.03867755878524426</v>
       </c>
       <c r="E25">
-        <v>-0.02673992631350295</v>
+        <v>0.005098426915412812</v>
       </c>
       <c r="F25">
-        <v>-0.05360139864774266</v>
+        <v>0.02198269285772131</v>
       </c>
       <c r="G25">
-        <v>0.009467428383884055</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02052839033916871</v>
+      </c>
+      <c r="H25">
+        <v>0.04331540291666763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02232458754560483</v>
+        <v>-0.01971555494950076</v>
       </c>
       <c r="C26">
-        <v>-0.01191820098632065</v>
+        <v>0.01758100790196781</v>
       </c>
       <c r="D26">
-        <v>0.02821558826701307</v>
+        <v>0.005689188527119702</v>
       </c>
       <c r="E26">
-        <v>-0.0009573048464591218</v>
+        <v>-0.0005634698351644694</v>
       </c>
       <c r="F26">
-        <v>-0.06899006722899537</v>
+        <v>0.005110667886231867</v>
       </c>
       <c r="G26">
-        <v>0.04471654126426487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03333946260391374</v>
+      </c>
+      <c r="H26">
+        <v>0.02164099552725932</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.060779720002909</v>
+        <v>-0.02410920301837965</v>
       </c>
       <c r="C27">
-        <v>-0.01993398869408866</v>
+        <v>-0.008860450025402981</v>
       </c>
       <c r="D27">
-        <v>-0.02809619312340699</v>
+        <v>0.01332718616087935</v>
       </c>
       <c r="E27">
-        <v>-0.03735864265696369</v>
+        <v>0.004291610597017583</v>
       </c>
       <c r="F27">
-        <v>-0.05891785987261208</v>
+        <v>0.0150156302502005</v>
       </c>
       <c r="G27">
-        <v>0.03923356558123513</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01239222704723866</v>
+      </c>
+      <c r="H27">
+        <v>-0.00152858654801665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05059383001002558</v>
+        <v>-0.1382800068698775</v>
       </c>
       <c r="C28">
-        <v>0.09850536588478506</v>
+        <v>-0.004405569182037236</v>
       </c>
       <c r="D28">
-        <v>-0.1010472863010906</v>
+        <v>-0.2321004190579603</v>
       </c>
       <c r="E28">
-        <v>0.1526045080759755</v>
+        <v>0.003378641925736003</v>
       </c>
       <c r="F28">
-        <v>-0.03684731382410767</v>
+        <v>-0.03211501340112528</v>
       </c>
       <c r="G28">
-        <v>0.002776416080962554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02492958040767031</v>
+      </c>
+      <c r="H28">
+        <v>-0.001027612181670935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02096718838912728</v>
+        <v>-0.02251595863084956</v>
       </c>
       <c r="C29">
-        <v>0.002251983933142497</v>
+        <v>-0.001137846389642244</v>
       </c>
       <c r="D29">
-        <v>-0.008095937334250696</v>
+        <v>0.007866982846745129</v>
       </c>
       <c r="E29">
-        <v>-0.04722656312987648</v>
+        <v>0.01517525465654057</v>
       </c>
       <c r="F29">
-        <v>-0.05209337408294651</v>
+        <v>0.02074753896428132</v>
       </c>
       <c r="G29">
-        <v>0.05114931161842434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03717460640953749</v>
+      </c>
+      <c r="H29">
+        <v>0.001237625109583644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08773630995063492</v>
+        <v>-0.0603522626288677</v>
       </c>
       <c r="C30">
-        <v>-0.0551564498178204</v>
+        <v>-0.001310058347860485</v>
       </c>
       <c r="D30">
-        <v>0.0002321121587167511</v>
+        <v>0.08644452141897098</v>
       </c>
       <c r="E30">
-        <v>-0.06132478562045533</v>
+        <v>-0.03017464219172766</v>
       </c>
       <c r="F30">
-        <v>-0.1025247868746512</v>
+        <v>0.05935266422150311</v>
       </c>
       <c r="G30">
-        <v>0.05835871439086883</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05160652508390075</v>
+      </c>
+      <c r="H30">
+        <v>0.07058828936817435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05782992082462834</v>
+        <v>-0.05356687298902935</v>
       </c>
       <c r="C31">
-        <v>-0.0312487428674974</v>
+        <v>-0.01277967152942985</v>
       </c>
       <c r="D31">
-        <v>0.01054497343649847</v>
+        <v>0.01694321117999144</v>
       </c>
       <c r="E31">
-        <v>-0.002568124196575251</v>
+        <v>-0.005287353006458419</v>
       </c>
       <c r="F31">
-        <v>-0.04293447954845639</v>
+        <v>0.008973813847518523</v>
       </c>
       <c r="G31">
-        <v>0.06063980036874947</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01423147070153508</v>
+      </c>
+      <c r="H31">
+        <v>0.002980199339280749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01721950391422816</v>
+        <v>-0.01120216606034294</v>
       </c>
       <c r="C32">
-        <v>-0.008444548499570931</v>
+        <v>-0.01334057151449451</v>
       </c>
       <c r="D32">
-        <v>0.01589430525285129</v>
+        <v>0.008110956659519622</v>
       </c>
       <c r="E32">
-        <v>-0.07406491714193399</v>
+        <v>0.03076292171303901</v>
       </c>
       <c r="F32">
-        <v>-0.08073996016380372</v>
+        <v>0.04265683466425971</v>
       </c>
       <c r="G32">
-        <v>0.04799396275455684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02473628140656513</v>
+      </c>
+      <c r="H32">
+        <v>0.05420722384901445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04634848024319209</v>
+        <v>-0.04237276636881233</v>
       </c>
       <c r="C33">
-        <v>-0.02660700210659478</v>
+        <v>-0.00304812577596374</v>
       </c>
       <c r="D33">
-        <v>0.04133496484408933</v>
+        <v>0.03453199163570475</v>
       </c>
       <c r="E33">
-        <v>-0.02591130315093338</v>
+        <v>-0.02210549227186447</v>
       </c>
       <c r="F33">
-        <v>-0.08652366068695658</v>
+        <v>0.00871990732520711</v>
       </c>
       <c r="G33">
-        <v>0.06256609611755123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04587234644999429</v>
+      </c>
+      <c r="H33">
+        <v>0.04111954014981932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02868835584149993</v>
+        <v>-0.02877999085141621</v>
       </c>
       <c r="C34">
-        <v>-0.02723675092865552</v>
+        <v>-0.01894419175278717</v>
       </c>
       <c r="D34">
-        <v>0.008893624794414197</v>
+        <v>0.03770449038152524</v>
       </c>
       <c r="E34">
-        <v>-0.0273764833504287</v>
+        <v>0.009265069246020897</v>
       </c>
       <c r="F34">
-        <v>-0.05743137937903902</v>
+        <v>0.02088790732662801</v>
       </c>
       <c r="G34">
-        <v>0.01595839691181553</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01605928418558488</v>
+      </c>
+      <c r="H34">
+        <v>0.03572754011392074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01453119939864812</v>
+        <v>-0.02073924114279423</v>
       </c>
       <c r="C36">
-        <v>-0.0009303640021657208</v>
+        <v>0.004800438690770374</v>
       </c>
       <c r="D36">
-        <v>-0.0001943778272500104</v>
+        <v>0.001450006330976073</v>
       </c>
       <c r="E36">
-        <v>-0.02354478504096224</v>
+        <v>0.007342324345858035</v>
       </c>
       <c r="F36">
-        <v>-0.03690926016577772</v>
+        <v>0.00733658674786917</v>
       </c>
       <c r="G36">
-        <v>0.03972615599889816</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01787151353352114</v>
+      </c>
+      <c r="H36">
+        <v>0.01215638599647524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001706037514674446</v>
+        <v>-0.02850797507049342</v>
       </c>
       <c r="C38">
-        <v>0.01099924509979356</v>
+        <v>-0.01761236793294225</v>
       </c>
       <c r="D38">
-        <v>0.01793521799669271</v>
+        <v>0.01045806656169868</v>
       </c>
       <c r="E38">
-        <v>0.02699882906379631</v>
+        <v>0.0004955265900833759</v>
       </c>
       <c r="F38">
-        <v>-0.03711308552668799</v>
+        <v>0.01483136456450448</v>
       </c>
       <c r="G38">
-        <v>0.01278216006599935</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02119363481097768</v>
+      </c>
+      <c r="H38">
+        <v>0.0420816098461723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03618025384286762</v>
+        <v>-0.02522716089703027</v>
       </c>
       <c r="C39">
-        <v>-0.04778968459855758</v>
+        <v>-0.007871060362056242</v>
       </c>
       <c r="D39">
-        <v>0.01343264150360314</v>
+        <v>0.08632063790524613</v>
       </c>
       <c r="E39">
-        <v>-0.03009989635397097</v>
+        <v>-0.003149882429300898</v>
       </c>
       <c r="F39">
-        <v>-0.06810995927292546</v>
+        <v>0.02689235407514555</v>
       </c>
       <c r="G39">
-        <v>0.02720143251593629</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03751758344491877</v>
+      </c>
+      <c r="H39">
+        <v>0.07162457429909959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03311164404939647</v>
+        <v>-0.03334524010599856</v>
       </c>
       <c r="C40">
-        <v>-0.07098948031968889</v>
+        <v>-0.00219381092210882</v>
       </c>
       <c r="D40">
-        <v>-0.001738957677902685</v>
+        <v>0.02637679499301886</v>
       </c>
       <c r="E40">
-        <v>0.01869821766707333</v>
+        <v>-0.02274611424094081</v>
       </c>
       <c r="F40">
-        <v>-0.0812979150698224</v>
+        <v>0.03733383569145579</v>
       </c>
       <c r="G40">
-        <v>0.05622769137574608</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02185578160021812</v>
+      </c>
+      <c r="H40">
+        <v>0.06717294650645059</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002684718404898663</v>
+        <v>-0.01074256367051184</v>
       </c>
       <c r="C41">
-        <v>0.00299272009679656</v>
+        <v>0.002153402211652426</v>
       </c>
       <c r="D41">
-        <v>0.00722650857509333</v>
+        <v>-0.01659599526690757</v>
       </c>
       <c r="E41">
-        <v>-0.004264803135812492</v>
+        <v>-0.00173782979745417</v>
       </c>
       <c r="F41">
-        <v>-0.01101411915463054</v>
+        <v>-0.001953830797652444</v>
       </c>
       <c r="G41">
-        <v>0.04748234771203032</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.004273738593398952</v>
+      </c>
+      <c r="H41">
+        <v>-0.006931613561679151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3885068508681191</v>
+        <v>-0.1963852060026362</v>
       </c>
       <c r="C42">
-        <v>0.3322918634910675</v>
+        <v>0.06112355322220727</v>
       </c>
       <c r="D42">
-        <v>0.7238747276182842</v>
+        <v>0.2556537750447186</v>
       </c>
       <c r="E42">
-        <v>0.2410204284017367</v>
+        <v>-0.191996925221125</v>
       </c>
       <c r="F42">
-        <v>0.3062091056919949</v>
+        <v>-0.9123778700917271</v>
       </c>
       <c r="G42">
-        <v>0.1535113172430402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.06935589274820435</v>
+      </c>
+      <c r="H42">
+        <v>-0.003820845868618077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.000115219591895909</v>
+        <v>-0.01334928158730474</v>
       </c>
       <c r="C43">
-        <v>0.005625461849612727</v>
+        <v>0.002519386552538397</v>
       </c>
       <c r="D43">
-        <v>0.01332334161351053</v>
+        <v>-0.01706129608681407</v>
       </c>
       <c r="E43">
-        <v>-0.003218772262199561</v>
+        <v>-0.004590500083658783</v>
       </c>
       <c r="F43">
-        <v>-0.028330851637406</v>
+        <v>-0.005500850784555523</v>
       </c>
       <c r="G43">
-        <v>0.04587197941452466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005755289480095899</v>
+      </c>
+      <c r="H43">
+        <v>0.006669237117015052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01640253101196382</v>
+        <v>-0.02097284342826953</v>
       </c>
       <c r="C44">
-        <v>0.008786567151318075</v>
+        <v>-0.005039462060371895</v>
       </c>
       <c r="D44">
-        <v>0.01529081390226419</v>
+        <v>0.0307098022821661</v>
       </c>
       <c r="E44">
-        <v>-0.00223228866393186</v>
+        <v>0.007334530510305649</v>
       </c>
       <c r="F44">
-        <v>-0.1112062375140378</v>
+        <v>0.007025038879527445</v>
       </c>
       <c r="G44">
-        <v>0.08709960872271043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04089308949977384</v>
+      </c>
+      <c r="H44">
+        <v>0.06453410876937732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02136511817908113</v>
+        <v>-0.01755879293691606</v>
       </c>
       <c r="C46">
-        <v>-0.01441736408067272</v>
+        <v>0.004296127736120923</v>
       </c>
       <c r="D46">
-        <v>0.02135286488376086</v>
+        <v>0.01048893342161254</v>
       </c>
       <c r="E46">
-        <v>-0.03891448439945054</v>
+        <v>0.001503186293354788</v>
       </c>
       <c r="F46">
-        <v>-0.06789933635742851</v>
+        <v>0.01659663883488157</v>
       </c>
       <c r="G46">
-        <v>0.06309516505389139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04280120423539385</v>
+      </c>
+      <c r="H46">
+        <v>0.004884658429908682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09572389079255478</v>
+        <v>-0.07761200787632409</v>
       </c>
       <c r="C47">
-        <v>-0.03556006454659263</v>
+        <v>-0.02977254015723938</v>
       </c>
       <c r="D47">
-        <v>-0.006050387093154586</v>
+        <v>0.0397406763503994</v>
       </c>
       <c r="E47">
-        <v>-0.02641778956748388</v>
+        <v>-0.0008736783868359878</v>
       </c>
       <c r="F47">
-        <v>-0.02625568510393668</v>
+        <v>0.01672471714580527</v>
       </c>
       <c r="G47">
-        <v>0.07972717419954026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01466786479852212</v>
+      </c>
+      <c r="H47">
+        <v>-0.02216876120499921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01613316642466567</v>
+        <v>-0.02309982895542699</v>
       </c>
       <c r="C48">
-        <v>-0.007684684614661387</v>
+        <v>-0.006262008493213342</v>
       </c>
       <c r="D48">
-        <v>0.01530254405240774</v>
+        <v>0.007525025809542124</v>
       </c>
       <c r="E48">
-        <v>-0.01747884147340895</v>
+        <v>0.001328210122083261</v>
       </c>
       <c r="F48">
-        <v>-0.04862399096503533</v>
+        <v>0.01058088648603887</v>
       </c>
       <c r="G48">
-        <v>0.02493973036228445</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02393632159215082</v>
+      </c>
+      <c r="H48">
+        <v>0.0183001846284524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08569809018658829</v>
+        <v>-0.07371989096696437</v>
       </c>
       <c r="C50">
-        <v>-0.03745503274656409</v>
+        <v>-0.02632949816908994</v>
       </c>
       <c r="D50">
-        <v>0.01797747972664164</v>
+        <v>0.0391623182942244</v>
       </c>
       <c r="E50">
-        <v>-0.02948889348385108</v>
+        <v>0.01257240390997994</v>
       </c>
       <c r="F50">
-        <v>-0.05400434895200672</v>
+        <v>0.01347280095929088</v>
       </c>
       <c r="G50">
-        <v>0.03865152627548174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.005326938216929597</v>
+      </c>
+      <c r="H50">
+        <v>-0.006004737072151609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01740014113638995</v>
+        <v>-0.02072772866077126</v>
       </c>
       <c r="C51">
-        <v>0.01918882985636025</v>
+        <v>0.00132608215359785</v>
       </c>
       <c r="D51">
-        <v>0.00876354532779092</v>
+        <v>0.000152884998362909</v>
       </c>
       <c r="E51">
-        <v>0.01399267953551182</v>
+        <v>0.008672446084189399</v>
       </c>
       <c r="F51">
-        <v>-0.1099466087174794</v>
+        <v>0.0004466880361431126</v>
       </c>
       <c r="G51">
-        <v>0.05006905688492531</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05465573458064026</v>
+      </c>
+      <c r="H51">
+        <v>0.05799350956947821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09688555533344607</v>
+        <v>-0.09596334913341285</v>
       </c>
       <c r="C53">
-        <v>-0.05412230874152969</v>
+        <v>-0.03802606538730093</v>
       </c>
       <c r="D53">
-        <v>-0.0008760125518586017</v>
+        <v>0.0740703819175412</v>
       </c>
       <c r="E53">
-        <v>-0.04586928572125581</v>
+        <v>0.0005353855643914116</v>
       </c>
       <c r="F53">
-        <v>0.04205174641293042</v>
+        <v>0.0338657206057215</v>
       </c>
       <c r="G53">
-        <v>0.0183906120430264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05758878931752946</v>
+      </c>
+      <c r="H53">
+        <v>-0.04192625910225679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02030253449699329</v>
+        <v>-0.02594553213908779</v>
       </c>
       <c r="C54">
-        <v>-0.003896787537959541</v>
+        <v>-0.009501575389866476</v>
       </c>
       <c r="D54">
-        <v>-0.01448089506559199</v>
+        <v>-0.01128853626732036</v>
       </c>
       <c r="E54">
-        <v>-0.03484842116946209</v>
+        <v>0.009435807644705309</v>
       </c>
       <c r="F54">
-        <v>-0.04877153314718296</v>
+        <v>0.01294855244272279</v>
       </c>
       <c r="G54">
-        <v>0.06521874573575098</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03804056821388861</v>
+      </c>
+      <c r="H54">
+        <v>-0.003169862834088511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.104515131278057</v>
+        <v>-0.08060929382540651</v>
       </c>
       <c r="C55">
-        <v>-0.02807215743236734</v>
+        <v>-0.03359417081545624</v>
       </c>
       <c r="D55">
-        <v>-0.01662228555624066</v>
+        <v>0.06931230070448516</v>
       </c>
       <c r="E55">
-        <v>-0.0697023031319305</v>
+        <v>0.008529862684502077</v>
       </c>
       <c r="F55">
-        <v>0.0289113219042041</v>
+        <v>0.02752613355682824</v>
       </c>
       <c r="G55">
-        <v>0.06181680339993621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03283727408585634</v>
+      </c>
+      <c r="H55">
+        <v>-0.05479970043909057</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.137351181245821</v>
+        <v>-0.1303093431186881</v>
       </c>
       <c r="C56">
-        <v>-0.07644159418028125</v>
+        <v>-0.05616877261509724</v>
       </c>
       <c r="D56">
-        <v>-0.03828732903993164</v>
+        <v>0.08687165930771966</v>
       </c>
       <c r="E56">
-        <v>-0.06303230040893569</v>
+        <v>-0.000743382099219168</v>
       </c>
       <c r="F56">
-        <v>0.07205085935544608</v>
+        <v>0.05197771924701084</v>
       </c>
       <c r="G56">
-        <v>-0.03461621045983963</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09405098223944001</v>
+      </c>
+      <c r="H56">
+        <v>-0.05905726765085537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04540988521625042</v>
+        <v>-0.04347754956707651</v>
       </c>
       <c r="C57">
-        <v>-0.007668509895099984</v>
+        <v>0.007701654870361068</v>
       </c>
       <c r="D57">
-        <v>0.0157875629285919</v>
+        <v>0.04182329676652872</v>
       </c>
       <c r="E57">
-        <v>0.02047367011956898</v>
+        <v>-0.006721126287040825</v>
       </c>
       <c r="F57">
-        <v>-0.06517503662110008</v>
+        <v>0.02502953866932553</v>
       </c>
       <c r="G57">
-        <v>0.06324877311460793</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05991079205750598</v>
+      </c>
+      <c r="H57">
+        <v>0.04215232959740157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2292329882245732</v>
+        <v>-0.1660158191928472</v>
       </c>
       <c r="C58">
-        <v>-0.09297600756053168</v>
+        <v>-0.05437385706276548</v>
       </c>
       <c r="D58">
-        <v>0.0737197619676742</v>
+        <v>0.1573177949730171</v>
       </c>
       <c r="E58">
-        <v>-0.0831965441241885</v>
+        <v>-0.1660989821394886</v>
       </c>
       <c r="F58">
-        <v>-0.4083095215570836</v>
+        <v>0.04058329169565857</v>
       </c>
       <c r="G58">
-        <v>0.1018148966686434</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8017513651247168</v>
+      </c>
+      <c r="H58">
+        <v>-0.4256619848047377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05040522533306936</v>
+        <v>-0.1520862880566391</v>
       </c>
       <c r="C59">
-        <v>0.05157547637478516</v>
+        <v>-0.01382941924209075</v>
       </c>
       <c r="D59">
-        <v>-0.1049951208611404</v>
+        <v>-0.2317877739321927</v>
       </c>
       <c r="E59">
-        <v>0.1498049330948609</v>
+        <v>-0.01565269184072937</v>
       </c>
       <c r="F59">
-        <v>-0.06120417156615082</v>
+        <v>-0.007607506095822348</v>
       </c>
       <c r="G59">
-        <v>-0.02162067318517752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02857221781038771</v>
+      </c>
+      <c r="H59">
+        <v>0.03460186324194271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1593548311344502</v>
+        <v>-0.1827531575432117</v>
       </c>
       <c r="C60">
-        <v>-0.05964907299251258</v>
+        <v>-0.03268939261190117</v>
       </c>
       <c r="D60">
-        <v>0.04791446104978705</v>
+        <v>0.02436553800384329</v>
       </c>
       <c r="E60">
-        <v>0.09238809673778492</v>
+        <v>-0.04769057944356894</v>
       </c>
       <c r="F60">
-        <v>-0.1585974047891639</v>
+        <v>0.05316533794673475</v>
       </c>
       <c r="G60">
-        <v>-0.2997135516401045</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04191724393081667</v>
+      </c>
+      <c r="H60">
+        <v>0.3682155810209261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02121912170567433</v>
+        <v>-0.0275107872077546</v>
       </c>
       <c r="C61">
-        <v>-0.01858623668732744</v>
+        <v>-0.01072158732885611</v>
       </c>
       <c r="D61">
-        <v>0.01278715749543629</v>
+        <v>0.05158090662381788</v>
       </c>
       <c r="E61">
-        <v>-0.01468667194105006</v>
+        <v>0.004236385424915908</v>
       </c>
       <c r="F61">
-        <v>-0.03846244588183683</v>
+        <v>0.0254159471427692</v>
       </c>
       <c r="G61">
-        <v>0.02077230218554543</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02140537026854528</v>
+      </c>
+      <c r="H61">
+        <v>0.05586354200597738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0168745372446202</v>
+        <v>-0.0146408658334658</v>
       </c>
       <c r="C63">
-        <v>-0.007185965833398701</v>
+        <v>0.001190420870135917</v>
       </c>
       <c r="D63">
-        <v>0.0185196004259063</v>
+        <v>0.02006390111118853</v>
       </c>
       <c r="E63">
-        <v>-0.03131571056786631</v>
+        <v>0.005250504263164583</v>
       </c>
       <c r="F63">
-        <v>-0.02207366954874151</v>
+        <v>0.01469007061503267</v>
       </c>
       <c r="G63">
-        <v>0.06284196894087715</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01550764547354544</v>
+      </c>
+      <c r="H63">
+        <v>0.008624566721216561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03451660952768992</v>
+        <v>-0.04290965469282087</v>
       </c>
       <c r="C64">
-        <v>-0.004579568165432567</v>
+        <v>-0.01089950898225801</v>
       </c>
       <c r="D64">
-        <v>-0.007382940320575147</v>
+        <v>0.03438908312010447</v>
       </c>
       <c r="E64">
-        <v>-0.05438840125045145</v>
+        <v>0.01151756286512263</v>
       </c>
       <c r="F64">
-        <v>-0.03564596884037274</v>
+        <v>0.007433732067278183</v>
       </c>
       <c r="G64">
-        <v>0.05486822536274821</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.000523036656963764</v>
+      </c>
+      <c r="H64">
+        <v>0.03760979334480503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02390907149097484</v>
+        <v>-0.03777120984237248</v>
       </c>
       <c r="C65">
-        <v>-0.01290763489422748</v>
+        <v>-0.0006956800346754638</v>
       </c>
       <c r="D65">
-        <v>0.007373049772448043</v>
+        <v>0.06547298741596254</v>
       </c>
       <c r="E65">
-        <v>-0.01998738148092968</v>
+        <v>0.00829007651758603</v>
       </c>
       <c r="F65">
-        <v>-0.02208694693460246</v>
+        <v>0.03651782473243034</v>
       </c>
       <c r="G65">
-        <v>-0.009845279417938019</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001599889766916347</v>
+      </c>
+      <c r="H65">
+        <v>0.06991021157384003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.033610380903242</v>
+        <v>-0.03358373582211655</v>
       </c>
       <c r="C66">
-        <v>-0.05634799850485885</v>
+        <v>-0.0142656538600719</v>
       </c>
       <c r="D66">
-        <v>0.01735091776711138</v>
+        <v>0.1055013227072864</v>
       </c>
       <c r="E66">
-        <v>-0.03034301760125406</v>
+        <v>-0.005042075749804148</v>
       </c>
       <c r="F66">
-        <v>-0.05528669899948853</v>
+        <v>0.04588471034027867</v>
       </c>
       <c r="G66">
-        <v>0.01629736418630933</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03041830758930168</v>
+      </c>
+      <c r="H66">
+        <v>0.07716910750810101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01157491151012987</v>
+        <v>-0.04804997721916931</v>
       </c>
       <c r="C67">
-        <v>0.0003349861914548714</v>
+        <v>-0.02002300058163514</v>
       </c>
       <c r="D67">
-        <v>0.01332921743108591</v>
+        <v>0.009992431945572647</v>
       </c>
       <c r="E67">
-        <v>0.03893030519805295</v>
+        <v>-0.004013257692456852</v>
       </c>
       <c r="F67">
-        <v>-0.02122107373347067</v>
+        <v>0.0228814164930833</v>
       </c>
       <c r="G67">
-        <v>-0.001559800466479471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.006876600524942842</v>
+      </c>
+      <c r="H67">
+        <v>0.0426334988278225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06848146769845763</v>
+        <v>-0.143494857330882</v>
       </c>
       <c r="C68">
-        <v>0.07958731032057988</v>
+        <v>0.009518961963286528</v>
       </c>
       <c r="D68">
-        <v>-0.1292374885149474</v>
+        <v>-0.2409489564440481</v>
       </c>
       <c r="E68">
-        <v>0.1408462385118922</v>
+        <v>-0.009839077009735433</v>
       </c>
       <c r="F68">
-        <v>-0.05381595090135272</v>
+        <v>-0.03936381971857888</v>
       </c>
       <c r="G68">
-        <v>-0.06046173311923666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03614357799904253</v>
+      </c>
+      <c r="H68">
+        <v>-0.03813532886323727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06872399715870596</v>
+        <v>-0.06274963917596879</v>
       </c>
       <c r="C69">
-        <v>-0.04362026213386967</v>
+        <v>-0.02939927192631396</v>
       </c>
       <c r="D69">
-        <v>-0.009582301175554286</v>
+        <v>0.03837292147018368</v>
       </c>
       <c r="E69">
-        <v>-0.01061962388868981</v>
+        <v>-0.0020663293816345</v>
       </c>
       <c r="F69">
-        <v>-0.01690813021186937</v>
+        <v>0.02692521656307535</v>
       </c>
       <c r="G69">
-        <v>0.08142674661281558</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01938317891710199</v>
+      </c>
+      <c r="H69">
+        <v>0.004448163784144499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07309525297259173</v>
+        <v>-0.1380612475364562</v>
       </c>
       <c r="C71">
-        <v>0.08965190414994752</v>
+        <v>-0.001911977193310841</v>
       </c>
       <c r="D71">
-        <v>-0.10913247505217</v>
+        <v>-0.2085524225632279</v>
       </c>
       <c r="E71">
-        <v>0.2034203641654789</v>
+        <v>-0.0160941986243641</v>
       </c>
       <c r="F71">
-        <v>-0.04702476028939796</v>
+        <v>-0.04530108060124599</v>
       </c>
       <c r="G71">
-        <v>0.0006935818203381491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03708171084979493</v>
+      </c>
+      <c r="H71">
+        <v>-0.01838879267103797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1138600843834185</v>
+        <v>-0.08419229830170576</v>
       </c>
       <c r="C72">
-        <v>-0.07118357530671832</v>
+        <v>-0.04043383939879298</v>
       </c>
       <c r="D72">
-        <v>-0.03297968876613869</v>
+        <v>0.07487226933987425</v>
       </c>
       <c r="E72">
-        <v>-0.01781267783118585</v>
+        <v>-0.01392769620929756</v>
       </c>
       <c r="F72">
-        <v>-0.1302968630207067</v>
+        <v>0.07512509254166652</v>
       </c>
       <c r="G72">
-        <v>-0.08444194854249275</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03131011514831361</v>
+      </c>
+      <c r="H72">
+        <v>0.1398657176859152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2357492427855749</v>
+        <v>-0.2501954350028359</v>
       </c>
       <c r="C73">
-        <v>-0.07316784410219487</v>
+        <v>-0.04618662008547958</v>
       </c>
       <c r="D73">
-        <v>0.05485704490556427</v>
+        <v>0.08617908434395311</v>
       </c>
       <c r="E73">
-        <v>0.1973731147699291</v>
+        <v>-0.08250045734628346</v>
       </c>
       <c r="F73">
-        <v>-0.2285777254287946</v>
+        <v>0.05759724650983622</v>
       </c>
       <c r="G73">
-        <v>-0.4376795248279449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.05910186379626187</v>
+      </c>
+      <c r="H73">
+        <v>0.4878116637320426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1392102914748136</v>
+        <v>-0.126048366479259</v>
       </c>
       <c r="C74">
-        <v>-0.03161286953110223</v>
+        <v>-0.0549208776378447</v>
       </c>
       <c r="D74">
-        <v>-0.02242820151148127</v>
+        <v>0.09590299266100281</v>
       </c>
       <c r="E74">
-        <v>-0.03763342530648924</v>
+        <v>0.001419899495246498</v>
       </c>
       <c r="F74">
-        <v>0.06705284882003423</v>
+        <v>0.03862019173280062</v>
       </c>
       <c r="G74">
-        <v>-0.02298015501092972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0779208704499345</v>
+      </c>
+      <c r="H74">
+        <v>-0.0318060755269093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2255638472263105</v>
+        <v>-0.2343080358219175</v>
       </c>
       <c r="C75">
-        <v>-0.1201940267646235</v>
+        <v>-0.1022357784166903</v>
       </c>
       <c r="D75">
-        <v>-0.07892062435920895</v>
+        <v>0.1447298218235413</v>
       </c>
       <c r="E75">
-        <v>-0.09681594672285011</v>
+        <v>-0.01743045401753326</v>
       </c>
       <c r="F75">
-        <v>0.09776581335677006</v>
+        <v>0.09943846728824371</v>
       </c>
       <c r="G75">
-        <v>-0.01050816642739638</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1608000964808171</v>
+      </c>
+      <c r="H75">
+        <v>-0.137338820272031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2735960185107367</v>
+        <v>-0.2074848028687809</v>
       </c>
       <c r="C76">
-        <v>-0.1072210224108341</v>
+        <v>-0.09512456015553901</v>
       </c>
       <c r="D76">
-        <v>-0.1359362744109808</v>
+        <v>0.1364091338622472</v>
       </c>
       <c r="E76">
-        <v>-0.1417808378103655</v>
+        <v>0.03012064979888324</v>
       </c>
       <c r="F76">
-        <v>0.1503487587622512</v>
+        <v>0.09489904211279809</v>
       </c>
       <c r="G76">
-        <v>-0.02347477210443661</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1580928928178465</v>
+      </c>
+      <c r="H76">
+        <v>-0.1339210055193182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1287602836356132</v>
+        <v>-0.0781194010019966</v>
       </c>
       <c r="C77">
-        <v>-0.02887517087100549</v>
+        <v>-0.01387641792166154</v>
       </c>
       <c r="D77">
-        <v>0.09822946118981195</v>
+        <v>0.06592957255360779</v>
       </c>
       <c r="E77">
-        <v>-0.05189515568839439</v>
+        <v>-0.008180503539892749</v>
       </c>
       <c r="F77">
-        <v>-0.1743327501788416</v>
+        <v>-0.003594914255829047</v>
       </c>
       <c r="G77">
-        <v>0.1858969259379622</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09023832567730519</v>
+      </c>
+      <c r="H77">
+        <v>0.01051997141398557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07465871290010809</v>
+        <v>-0.04734983643434868</v>
       </c>
       <c r="C78">
-        <v>-0.03976470074298311</v>
+        <v>-0.01467198740024643</v>
       </c>
       <c r="D78">
-        <v>0.04076390782197718</v>
+        <v>0.05875521627800948</v>
       </c>
       <c r="E78">
-        <v>-0.07471812633616</v>
+        <v>0.004064678770565579</v>
       </c>
       <c r="F78">
-        <v>-0.1073390735338095</v>
+        <v>0.03170977644669408</v>
       </c>
       <c r="G78">
-        <v>0.03028538563091016</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06033057543730992</v>
+      </c>
+      <c r="H78">
+        <v>0.07133923572706245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1568851683847522</v>
+        <v>-0.1446689479316278</v>
       </c>
       <c r="C80">
-        <v>0.7789014793978581</v>
+        <v>-0.03591885680638912</v>
       </c>
       <c r="D80">
-        <v>-0.1797922527743288</v>
+        <v>0.05945151312146039</v>
       </c>
       <c r="E80">
-        <v>-0.5216423700342467</v>
+        <v>0.9504724574456265</v>
       </c>
       <c r="F80">
-        <v>-0.09728824529908942</v>
+        <v>-0.1736024351659626</v>
       </c>
       <c r="G80">
-        <v>-0.1410826529346077</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1319768288810515</v>
+      </c>
+      <c r="H80">
+        <v>-0.003682945718322837</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.170630742123997</v>
+        <v>-0.1553468051428954</v>
       </c>
       <c r="C81">
-        <v>-0.08703036160967792</v>
+        <v>-0.06640215574277526</v>
       </c>
       <c r="D81">
-        <v>-0.08831811054289769</v>
+        <v>0.08986364653891191</v>
       </c>
       <c r="E81">
-        <v>-0.07196623472053329</v>
+        <v>0.005956620453187303</v>
       </c>
       <c r="F81">
-        <v>0.1153263079510331</v>
+        <v>0.06472097106384986</v>
       </c>
       <c r="G81">
-        <v>-0.04000239394479632</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1084127525094839</v>
+      </c>
+      <c r="H81">
+        <v>-0.08753812540859796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03983353265179027</v>
+        <v>-0.03603960291993828</v>
       </c>
       <c r="C83">
-        <v>-0.02104349789850886</v>
+        <v>-0.007317980641834679</v>
       </c>
       <c r="D83">
-        <v>0.03154544901911736</v>
+        <v>0.02228717189112419</v>
       </c>
       <c r="E83">
-        <v>-0.005087407376458937</v>
+        <v>-0.006562153052409844</v>
       </c>
       <c r="F83">
-        <v>-0.05415322788990277</v>
+        <v>0.01494446703755462</v>
       </c>
       <c r="G83">
-        <v>0.03957398920384405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04585572659801705</v>
+      </c>
+      <c r="H83">
+        <v>0.0369792952731522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2502796544443275</v>
+        <v>-0.2256639466413187</v>
       </c>
       <c r="C85">
-        <v>-0.107028662734269</v>
+        <v>-0.08705489389612178</v>
       </c>
       <c r="D85">
-        <v>-0.09180622652198206</v>
+        <v>0.1478993078047088</v>
       </c>
       <c r="E85">
-        <v>-0.1063766670210309</v>
+        <v>-0.01082389303518481</v>
       </c>
       <c r="F85">
-        <v>0.0964668460427458</v>
+        <v>0.08476312117050518</v>
       </c>
       <c r="G85">
-        <v>0.02846020738746275</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1707907903435741</v>
+      </c>
+      <c r="H85">
+        <v>-0.09876413915828793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006837164164755463</v>
+        <v>-0.0280501855985321</v>
       </c>
       <c r="C86">
-        <v>-0.002618610957084311</v>
+        <v>-0.003303839033644473</v>
       </c>
       <c r="D86">
-        <v>0.03245160498174389</v>
+        <v>0.02833094805439884</v>
       </c>
       <c r="E86">
-        <v>-0.04263743314005609</v>
+        <v>-0.003112566473328117</v>
       </c>
       <c r="F86">
-        <v>-0.07039601415073406</v>
+        <v>0.002721111618182083</v>
       </c>
       <c r="G86">
-        <v>0.02829923570120194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07917761308532173</v>
+      </c>
+      <c r="H86">
+        <v>0.09204561595890932</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03928159549547975</v>
+        <v>-0.03078434504020652</v>
       </c>
       <c r="C87">
-        <v>0.008112763651228724</v>
+        <v>-0.004676999990140616</v>
       </c>
       <c r="D87">
-        <v>0.01787177813033058</v>
+        <v>0.04374325361565438</v>
       </c>
       <c r="E87">
-        <v>-0.01805206637502066</v>
+        <v>0.008870487849202004</v>
       </c>
       <c r="F87">
-        <v>-0.1153547753904067</v>
+        <v>0.01747804275506734</v>
       </c>
       <c r="G87">
-        <v>0.05020769100103104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08044367444998446</v>
+      </c>
+      <c r="H87">
+        <v>0.07494143382845742</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.004845917415276854</v>
+        <v>-0.03845693701063118</v>
       </c>
       <c r="C88">
-        <v>0.002006502751365134</v>
+        <v>0.01082866687940507</v>
       </c>
       <c r="D88">
-        <v>-0.01219763824168492</v>
+        <v>0.01477044288925635</v>
       </c>
       <c r="E88">
-        <v>-0.005671230684169798</v>
+        <v>0.01011603538105431</v>
       </c>
       <c r="F88">
-        <v>-0.003531484004882921</v>
+        <v>0.01472221101415174</v>
       </c>
       <c r="G88">
-        <v>0.04952510088508064</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003990031092546141</v>
+      </c>
+      <c r="H88">
+        <v>0.02122214573369778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09111109427437415</v>
+        <v>-0.235221409501667</v>
       </c>
       <c r="C89">
-        <v>0.1111392169474317</v>
+        <v>-0.0002309118386266831</v>
       </c>
       <c r="D89">
-        <v>-0.1636106215870094</v>
+        <v>-0.366605489724608</v>
       </c>
       <c r="E89">
-        <v>0.2575724199978116</v>
+        <v>-0.02485668214440262</v>
       </c>
       <c r="F89">
-        <v>-0.08071739484120395</v>
+        <v>-0.0319355717769312</v>
       </c>
       <c r="G89">
-        <v>0.007676516604917746</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0002843465781192512</v>
+      </c>
+      <c r="H89">
+        <v>0.0152725782388557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08670425737549294</v>
+        <v>-0.1896392059898784</v>
       </c>
       <c r="C90">
-        <v>0.1612710875999775</v>
+        <v>0.001210695763909447</v>
       </c>
       <c r="D90">
-        <v>-0.2047137439637128</v>
+        <v>-0.3251848656680046</v>
       </c>
       <c r="E90">
-        <v>0.2492011854365811</v>
+        <v>-0.01677368866386419</v>
       </c>
       <c r="F90">
-        <v>-0.03812783958350648</v>
+        <v>-0.05798301031323696</v>
       </c>
       <c r="G90">
-        <v>0.01565693323209693</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.006597850363302203</v>
+      </c>
+      <c r="H90">
+        <v>-0.0399734909921281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3046067514484786</v>
+        <v>-0.2372270788199191</v>
       </c>
       <c r="C91">
-        <v>-0.1358213683190068</v>
+        <v>-0.10014231399378</v>
       </c>
       <c r="D91">
-        <v>-0.09020840303900857</v>
+        <v>0.1285413456548628</v>
       </c>
       <c r="E91">
-        <v>-0.09985486421973409</v>
+        <v>-0.01666034600408076</v>
       </c>
       <c r="F91">
-        <v>0.2282265522699931</v>
+        <v>0.08270168079605121</v>
       </c>
       <c r="G91">
-        <v>-0.04453958218109549</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1908906562867876</v>
+      </c>
+      <c r="H91">
+        <v>-0.1748568176990364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1723493330983564</v>
+        <v>-0.240900685376024</v>
       </c>
       <c r="C92">
-        <v>0.09694960027939595</v>
+        <v>-0.06586093553712466</v>
       </c>
       <c r="D92">
-        <v>-0.3620691447762604</v>
+        <v>-0.2614494106856272</v>
       </c>
       <c r="E92">
-        <v>0.2609885692018772</v>
+        <v>-0.006369631768823495</v>
       </c>
       <c r="F92">
-        <v>0.1039767026667128</v>
+        <v>0.006557608829908703</v>
       </c>
       <c r="G92">
-        <v>0.5339404676224169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.003917196124140741</v>
+      </c>
+      <c r="H92">
+        <v>-0.1389642772933143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09384640295912774</v>
+        <v>-0.2127980313367101</v>
       </c>
       <c r="C93">
-        <v>0.1720850632122189</v>
+        <v>-0.008720962076740897</v>
       </c>
       <c r="D93">
-        <v>-0.2362393817679762</v>
+        <v>-0.3406020185693824</v>
       </c>
       <c r="E93">
-        <v>0.3556321914717384</v>
+        <v>-0.03750512042158215</v>
       </c>
       <c r="F93">
-        <v>0.007917301462319209</v>
+        <v>-0.06128243179844551</v>
       </c>
       <c r="G93">
-        <v>-0.06657918570754637</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.001477559079893115</v>
+      </c>
+      <c r="H93">
+        <v>0.01287352739328894</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3035281308079157</v>
+        <v>-0.2607862228425462</v>
       </c>
       <c r="C94">
-        <v>-0.1892943670530778</v>
+        <v>-0.08944246586663129</v>
       </c>
       <c r="D94">
-        <v>-0.1752970239131849</v>
+        <v>0.1227061872448701</v>
       </c>
       <c r="E94">
-        <v>-0.1144842558008307</v>
+        <v>-0.03261015484360685</v>
       </c>
       <c r="F94">
-        <v>0.1821751502418908</v>
+        <v>0.1311343080449963</v>
       </c>
       <c r="G94">
-        <v>-0.0509390993896134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1858170656856678</v>
+      </c>
+      <c r="H94">
+        <v>-0.2149453312108151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05916475445318851</v>
+        <v>-0.06163843196333733</v>
       </c>
       <c r="C95">
-        <v>-0.07341568078724259</v>
+        <v>-0.03501541483217724</v>
       </c>
       <c r="D95">
-        <v>0.06766317828465135</v>
+        <v>0.08587321619542718</v>
       </c>
       <c r="E95">
-        <v>-0.05527782173969696</v>
+        <v>-0.07851114745918636</v>
       </c>
       <c r="F95">
-        <v>-0.01136182494302055</v>
+        <v>0.007836768286663876</v>
       </c>
       <c r="G95">
-        <v>0.1791814245166342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04978131493030245</v>
+      </c>
+      <c r="H95">
+        <v>0.04184961301881384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1779773762826377</v>
+        <v>-0.1882207720307254</v>
       </c>
       <c r="C98">
-        <v>-0.01353294908168606</v>
+        <v>-0.0645853230667459</v>
       </c>
       <c r="D98">
-        <v>0.04874653357444079</v>
+        <v>0.03997268295325185</v>
       </c>
       <c r="E98">
-        <v>0.1274094163031577</v>
+        <v>-0.04802995455195045</v>
       </c>
       <c r="F98">
-        <v>-0.1221176186563911</v>
+        <v>0.02028389963481023</v>
       </c>
       <c r="G98">
-        <v>-0.3533974264905538</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07858197054892657</v>
+      </c>
+      <c r="H98">
+        <v>0.3433123516649431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007533045735000655</v>
+        <v>-0.01633359179846341</v>
       </c>
       <c r="C101">
-        <v>-0.01119570805447868</v>
+        <v>0.0002311982955450644</v>
       </c>
       <c r="D101">
-        <v>0.01115500265019569</v>
+        <v>0.0104885961555143</v>
       </c>
       <c r="E101">
-        <v>-0.08361716860446573</v>
+        <v>0.00757400072592597</v>
       </c>
       <c r="F101">
-        <v>-0.1705153800988337</v>
+        <v>0.02908056371816361</v>
       </c>
       <c r="G101">
-        <v>0.1576683097499254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1023908309807834</v>
+      </c>
+      <c r="H101">
+        <v>-0.02982907058106263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1142512744084802</v>
+        <v>-0.1087188944733854</v>
       </c>
       <c r="C102">
-        <v>-0.06110759682849964</v>
+        <v>-0.03464951353906977</v>
       </c>
       <c r="D102">
-        <v>-0.02665471255207717</v>
+        <v>0.07252539414901978</v>
       </c>
       <c r="E102">
-        <v>-0.07113171706814306</v>
+        <v>-0.002829603225547847</v>
       </c>
       <c r="F102">
-        <v>0.09504139080614697</v>
+        <v>0.04399250423536113</v>
       </c>
       <c r="G102">
-        <v>-0.01062925969718281</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09668182411368563</v>
+      </c>
+      <c r="H102">
+        <v>-0.06757085131404572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02258960427739492</v>
+        <v>-0.01761289555862475</v>
       </c>
       <c r="C103">
-        <v>-0.02222917488905832</v>
+        <v>-0.006731768014084915</v>
       </c>
       <c r="D103">
-        <v>0.001655373607807688</v>
+        <v>0.0146588571367402</v>
       </c>
       <c r="E103">
-        <v>-0.02499142926407033</v>
+        <v>0.009829227227638701</v>
       </c>
       <c r="F103">
-        <v>-0.004954722314394753</v>
+        <v>0.009636096655516024</v>
       </c>
       <c r="G103">
-        <v>0.01281792854760763</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001231412529145408</v>
+      </c>
+      <c r="H103">
+        <v>-0.01382571679686732</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2271603321013576</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9542657539343975</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.08843536676272615</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02231243102237622</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.131546479533094</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03603013881216574</v>
+      </c>
+      <c r="H104">
+        <v>-0.04934529861526246</v>
       </c>
     </row>
   </sheetData>
